--- a/simulations/cleaned_inclusion_exclusion/Smid_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Smid_2020 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D3">
         <v>0.9629629629629629</v>
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.7719832508564903</v>
+        <v>0.8020555767034641</v>
       </c>
       <c r="I3">
-        <v>0.04488603988603988</v>
+        <v>0.03733618233618233</v>
       </c>
       <c r="J3">
-        <v>0.7407407407407407</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="K3">
-        <v>130.7037037037037</v>
+        <v>111.0740740740741</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -755,34 +755,34 @@
         <v>24</v>
       </c>
       <c r="Q3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="T3">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="U3">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="V3">
-        <v>2586</v>
+        <v>2598</v>
       </c>
       <c r="W3">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="X3">
-        <v>2555</v>
+        <v>2568</v>
       </c>
       <c r="Y3">
-        <v>2475</v>
+        <v>2504</v>
       </c>
       <c r="Z3">
-        <v>2308</v>
+        <v>2372</v>
       </c>
       <c r="AA3">
         <v>25</v>
@@ -800,19 +800,19 @@
         <v>3</v>
       </c>
       <c r="AF3">
-        <v>0.994615</v>
+        <v>0.999231</v>
       </c>
       <c r="AG3">
-        <v>0.992692</v>
+        <v>0.993077</v>
       </c>
       <c r="AH3">
-        <v>0.982692</v>
+        <v>0.987692</v>
       </c>
       <c r="AI3">
-        <v>0.951923</v>
+        <v>0.963077</v>
       </c>
       <c r="AJ3">
-        <v>0.887692</v>
+        <v>0.912308</v>
       </c>
     </row>
   </sheetData>
